--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H2">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N2">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O2">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P2">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q2">
-        <v>5.462260084604778</v>
+        <v>3.77950162568</v>
       </c>
       <c r="R2">
-        <v>49.160340761443</v>
+        <v>34.01551463112001</v>
       </c>
       <c r="S2">
-        <v>0.06911150066156728</v>
+        <v>0.08033937449271637</v>
       </c>
       <c r="T2">
-        <v>0.06911150066156729</v>
+        <v>0.08033937449271637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H3">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.388999</v>
       </c>
       <c r="O3">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P3">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q3">
-        <v>0.6326358686323335</v>
+        <v>0.7718377969200001</v>
       </c>
       <c r="R3">
-        <v>5.693722817691</v>
+        <v>6.946540172280001</v>
       </c>
       <c r="S3">
-        <v>0.008004454855004995</v>
+        <v>0.01640665144659979</v>
       </c>
       <c r="T3">
-        <v>0.008004454855004995</v>
+        <v>0.0164066514465998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H4">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N4">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O4">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P4">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q4">
-        <v>0.5716522875645557</v>
+        <v>0.2610231166800001</v>
       </c>
       <c r="R4">
-        <v>5.144870588081</v>
+        <v>2.34920805012</v>
       </c>
       <c r="S4">
-        <v>0.007232857249246641</v>
+        <v>0.005548465379595535</v>
       </c>
       <c r="T4">
-        <v>0.007232857249246642</v>
+        <v>0.005548465379595535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H5">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N5">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O5">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P5">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q5">
-        <v>1.530748526774667</v>
+        <v>1.9123137508</v>
       </c>
       <c r="R5">
-        <v>13.776736740972</v>
+        <v>17.2108237572</v>
       </c>
       <c r="S5">
-        <v>0.01936786717993402</v>
+        <v>0.04064929871420567</v>
       </c>
       <c r="T5">
-        <v>0.01936786717993403</v>
+        <v>0.04064929871420567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H6">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N6">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O6">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P6">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q6">
-        <v>0.2238218444322223</v>
+        <v>0.5327308120399999</v>
       </c>
       <c r="R6">
-        <v>2.01439659989</v>
+        <v>4.79457730836</v>
       </c>
       <c r="S6">
-        <v>0.002831916333158269</v>
+        <v>0.01132404863156795</v>
       </c>
       <c r="T6">
-        <v>0.002831916333158269</v>
+        <v>0.01132404863156795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H7">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N7">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O7">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P7">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q7">
-        <v>0.6832652961556667</v>
+        <v>0.36198141664</v>
       </c>
       <c r="R7">
-        <v>6.149387665401</v>
+        <v>3.25783274976</v>
       </c>
       <c r="S7">
-        <v>0.008645046049780883</v>
+        <v>0.007694496119078316</v>
       </c>
       <c r="T7">
-        <v>0.008645046049780884</v>
+        <v>0.007694496119078317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
         <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J8">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N8">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O8">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P8">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q8">
-        <v>32.08113290328489</v>
+        <v>18.19447912791911</v>
       </c>
       <c r="R8">
-        <v>288.730196129564</v>
+        <v>163.750312151272</v>
       </c>
       <c r="S8">
-        <v>0.4059080313876386</v>
+        <v>0.3867528624477871</v>
       </c>
       <c r="T8">
-        <v>0.4059080313876386</v>
+        <v>0.3867528624477871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
         <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J9">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.388999</v>
       </c>
       <c r="O9">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P9">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q9">
         <v>3.715618638918667</v>
@@ -1013,10 +1013,10 @@
         <v>33.440567750268</v>
       </c>
       <c r="S9">
-        <v>0.04701203824869489</v>
+        <v>0.07898143905428176</v>
       </c>
       <c r="T9">
-        <v>0.0470120382486949</v>
+        <v>0.07898143905428177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
         <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J10">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N10">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O10">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P10">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q10">
-        <v>3.357447783109778</v>
+        <v>1.256562403908</v>
       </c>
       <c r="R10">
-        <v>30.217030047988</v>
+        <v>11.309061635172</v>
       </c>
       <c r="S10">
-        <v>0.04248026477859635</v>
+        <v>0.02671025112282357</v>
       </c>
       <c r="T10">
-        <v>0.04248026477859636</v>
+        <v>0.02671025112282357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
         <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J11">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N11">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O11">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P11">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q11">
-        <v>8.990444645317332</v>
+        <v>9.205857298368889</v>
       </c>
       <c r="R11">
-        <v>80.914001807856</v>
+        <v>82.85271568531999</v>
       </c>
       <c r="S11">
-        <v>0.1137520204876129</v>
+        <v>0.1956852755387023</v>
       </c>
       <c r="T11">
-        <v>0.1137520204876129</v>
+        <v>0.1956852755387023</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
         <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J12">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N12">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O12">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P12">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q12">
-        <v>1.314558118191111</v>
+        <v>2.564560251701777</v>
       </c>
       <c r="R12">
-        <v>11.83102306372</v>
+        <v>23.081042265316</v>
       </c>
       <c r="S12">
-        <v>0.01663250794503447</v>
+        <v>0.05451384517754628</v>
       </c>
       <c r="T12">
-        <v>0.01663250794503447</v>
+        <v>0.05451384517754629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
         <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J13">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N13">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O13">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P13">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q13">
-        <v>4.012977125705333</v>
+        <v>1.742574546072888</v>
       </c>
       <c r="R13">
-        <v>36.116794131348</v>
+        <v>15.683170914656</v>
       </c>
       <c r="S13">
-        <v>0.05077438038143248</v>
+        <v>0.03704121942618214</v>
       </c>
       <c r="T13">
-        <v>0.05077438038143248</v>
+        <v>0.03704121942618215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N14">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O14">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P14">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q14">
-        <v>0.007897821160222222</v>
+        <v>0.001486989758222222</v>
       </c>
       <c r="R14">
-        <v>0.071080390442</v>
+        <v>0.013382907824</v>
       </c>
       <c r="S14">
-        <v>9.992755084622299E-05</v>
+        <v>3.160835445629824E-05</v>
       </c>
       <c r="T14">
-        <v>9.9927550846223E-05</v>
+        <v>3.160835445629825E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.388999</v>
       </c>
       <c r="O15">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P15">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q15">
-        <v>0.0009147211726666668</v>
+        <v>0.0003036683173333334</v>
       </c>
       <c r="R15">
-        <v>0.008232490554000001</v>
+        <v>0.002733014856</v>
       </c>
       <c r="S15">
-        <v>1.157355233012052E-05</v>
+        <v>6.454957580135008E-06</v>
       </c>
       <c r="T15">
-        <v>1.157355233012052E-05</v>
+        <v>6.454957580135008E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H16">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N16">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O16">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P16">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q16">
-        <v>0.0008265456904444445</v>
+        <v>0.000102695736</v>
       </c>
       <c r="R16">
-        <v>0.007438911214</v>
+        <v>0.000924261624</v>
       </c>
       <c r="S16">
-        <v>1.045790792587278E-05</v>
+        <v>2.182962731713264E-06</v>
       </c>
       <c r="T16">
-        <v>1.045790792587278E-05</v>
+        <v>2.182962731713264E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H17">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N17">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O17">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P17">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q17">
-        <v>0.002213292285333333</v>
+        <v>0.0007523719377777779</v>
       </c>
       <c r="R17">
-        <v>0.019919630568</v>
+        <v>0.00677134744</v>
       </c>
       <c r="S17">
-        <v>2.80037839415924E-05</v>
+        <v>1.599287336093272E-05</v>
       </c>
       <c r="T17">
-        <v>2.800378394159241E-05</v>
+        <v>1.599287336093272E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H18">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N18">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O18">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P18">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q18">
-        <v>0.0003236215177777779</v>
+        <v>0.0002095951635555555</v>
       </c>
       <c r="R18">
-        <v>0.00291259366</v>
+        <v>0.001886356472</v>
       </c>
       <c r="S18">
-        <v>4.094636358132074E-06</v>
+        <v>4.455281675853842E-06</v>
       </c>
       <c r="T18">
-        <v>4.094636358132074E-06</v>
+        <v>4.455281675853843E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H19">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N19">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O19">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P19">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q19">
-        <v>0.0009879256993333334</v>
+        <v>0.0001424163057777777</v>
       </c>
       <c r="R19">
-        <v>0.008891331294</v>
+        <v>0.001281746752</v>
       </c>
       <c r="S19">
-        <v>1.249977602045934E-05</v>
+        <v>3.027287207924282E-06</v>
       </c>
       <c r="T19">
-        <v>1.249977602045934E-05</v>
+        <v>3.027287207924282E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H20">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N20">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O20">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P20">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q20">
-        <v>8.815618568967999</v>
+        <v>1.326532644853778</v>
       </c>
       <c r="R20">
-        <v>79.340567120712</v>
+        <v>11.938793803684</v>
       </c>
       <c r="S20">
-        <v>0.1115400253969122</v>
+        <v>0.02819758092114772</v>
       </c>
       <c r="T20">
-        <v>0.1115400253969122</v>
+        <v>0.02819758092114772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H21">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.388999</v>
       </c>
       <c r="O21">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P21">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q21">
-        <v>1.021019948616</v>
+        <v>0.2709002761606666</v>
       </c>
       <c r="R21">
-        <v>9.189179537544</v>
+        <v>2.438102485446</v>
       </c>
       <c r="S21">
-        <v>0.01291850255412248</v>
+        <v>0.005758420260696766</v>
       </c>
       <c r="T21">
-        <v>0.01291850255412248</v>
+        <v>0.005758420260696767</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H22">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N22">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O22">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P22">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q22">
-        <v>0.922597687256</v>
+        <v>0.09161411202599999</v>
       </c>
       <c r="R22">
-        <v>8.303379185303999</v>
+        <v>0.8245270082339999</v>
       </c>
       <c r="S22">
-        <v>0.01167321029858413</v>
+        <v>0.001947405024214072</v>
       </c>
       <c r="T22">
-        <v>0.01167321029858413</v>
+        <v>0.001947405024214072</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H23">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N23">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O23">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P23">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q23">
-        <v>2.470496631072</v>
+        <v>0.6711854812822222</v>
       </c>
       <c r="R23">
-        <v>22.234469679648</v>
+        <v>6.04066933154</v>
       </c>
       <c r="S23">
-        <v>0.0312580739305983</v>
+        <v>0.01426712489509907</v>
       </c>
       <c r="T23">
-        <v>0.0312580739305983</v>
+        <v>0.01426712489509907</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H24">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N24">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O24">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P24">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q24">
-        <v>0.36122923064</v>
+        <v>0.1869783064224444</v>
       </c>
       <c r="R24">
-        <v>3.25106307576</v>
+        <v>1.682804757802</v>
       </c>
       <c r="S24">
-        <v>0.004570469700393287</v>
+        <v>0.003974524069422501</v>
       </c>
       <c r="T24">
-        <v>0.004570469700393287</v>
+        <v>0.003974524069422502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H25">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N25">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O25">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P25">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q25">
-        <v>1.102731495576</v>
+        <v>0.1270485406702222</v>
       </c>
       <c r="R25">
-        <v>9.924583460184</v>
+        <v>1.143436866032</v>
       </c>
       <c r="S25">
-        <v>0.01395236171577247</v>
+        <v>0.002700620689856606</v>
       </c>
       <c r="T25">
-        <v>0.01395236171577247</v>
+        <v>0.002700620689856606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.001163</v>
       </c>
       <c r="I26">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J26">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N26">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O26">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P26">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q26">
-        <v>0.002665457344555555</v>
+        <v>0.001511686266444444</v>
       </c>
       <c r="R26">
-        <v>0.023989116101</v>
+        <v>0.013605176398</v>
       </c>
       <c r="S26">
-        <v>3.37248234573875E-05</v>
+        <v>3.213331838520529E-05</v>
       </c>
       <c r="T26">
-        <v>3.372482345738751E-05</v>
+        <v>3.213331838520529E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.001163</v>
       </c>
       <c r="I27">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J27">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>2.388999</v>
       </c>
       <c r="O27">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P27">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q27">
         <v>0.0003087117596666667</v>
@@ -2129,10 +2129,10 @@
         <v>0.002778405837</v>
       </c>
       <c r="S27">
-        <v>3.90598994774526E-06</v>
+        <v>6.562164043441445E-06</v>
       </c>
       <c r="T27">
-        <v>3.905989947745261E-06</v>
+        <v>6.562164043441445E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,40 +2161,40 @@
         <v>0.001163</v>
       </c>
       <c r="I28">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J28">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N28">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O28">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P28">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q28">
-        <v>0.0002789531741111111</v>
+        <v>0.000104401347</v>
       </c>
       <c r="R28">
-        <v>0.002510578567</v>
+        <v>0.000939612123</v>
       </c>
       <c r="S28">
-        <v>3.529468055075461E-06</v>
+        <v>2.219218231628082E-06</v>
       </c>
       <c r="T28">
-        <v>3.529468055075462E-06</v>
+        <v>2.219218231628082E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.001163</v>
       </c>
       <c r="I29">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J29">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N29">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O29">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P29">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q29">
-        <v>0.0007469700893333332</v>
+        <v>0.0007648676255555555</v>
       </c>
       <c r="R29">
-        <v>0.006722730803999999</v>
+        <v>0.00688380863</v>
       </c>
       <c r="S29">
-        <v>9.451073918767256E-06</v>
+        <v>1.625848926465451E-05</v>
       </c>
       <c r="T29">
-        <v>9.451073918767257E-06</v>
+        <v>1.625848926465451E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.001163</v>
       </c>
       <c r="I30">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J30">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N30">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O30">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P30">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q30">
-        <v>0.0001092199144444444</v>
+        <v>0.0002130762021111111</v>
       </c>
       <c r="R30">
-        <v>0.0009829792300000001</v>
+        <v>0.001917685819</v>
       </c>
       <c r="S30">
-        <v>1.381910065150204E-06</v>
+        <v>4.529276738652114E-06</v>
       </c>
       <c r="T30">
-        <v>1.381910065150204E-06</v>
+        <v>4.529276738652115E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.001163</v>
       </c>
       <c r="I31">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J31">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N31">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O31">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P31">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q31">
-        <v>0.0003334177563333333</v>
+        <v>0.0001447816115555555</v>
       </c>
       <c r="R31">
-        <v>0.003000759807</v>
+        <v>0.001303034504</v>
       </c>
       <c r="S31">
-        <v>4.218583723677947E-06</v>
+        <v>3.077565579384562E-06</v>
       </c>
       <c r="T31">
-        <v>4.218583723677948E-06</v>
+        <v>3.077565579384563E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H32">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.875642333333333</v>
+        <v>3.899448666666667</v>
       </c>
       <c r="N32">
-        <v>20.626927</v>
+        <v>11.698346</v>
       </c>
       <c r="O32">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260953</v>
       </c>
       <c r="P32">
-        <v>0.5999593316475348</v>
+        <v>0.4960373941260954</v>
       </c>
       <c r="Q32">
-        <v>1.048494201979333</v>
+        <v>0.0321704515</v>
       </c>
       <c r="R32">
-        <v>9.436447817813999</v>
+        <v>0.2895340635</v>
       </c>
       <c r="S32">
-        <v>0.01326612182711311</v>
+        <v>0.0006838345916026062</v>
       </c>
       <c r="T32">
-        <v>0.01326612182711311</v>
+        <v>0.0006838345916026063</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H33">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.388999</v>
       </c>
       <c r="O33">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077721</v>
       </c>
       <c r="P33">
-        <v>0.06948694991486755</v>
+        <v>0.1012991784077722</v>
       </c>
       <c r="Q33">
-        <v>0.121436004502</v>
+        <v>0.006569747250000001</v>
       </c>
       <c r="R33">
-        <v>1.092924040518</v>
+        <v>0.05912772525000001</v>
       </c>
       <c r="S33">
-        <v>0.001536474714767323</v>
+        <v>0.0001396505245702285</v>
       </c>
       <c r="T33">
-        <v>0.001536474714767323</v>
+        <v>0.0001396505245702285</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H34">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7195696666666667</v>
+        <v>0.269307</v>
       </c>
       <c r="N34">
-        <v>2.158709</v>
+        <v>0.807921</v>
       </c>
       <c r="O34">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="P34">
-        <v>0.0627886843668724</v>
+        <v>0.03425775126669608</v>
       </c>
       <c r="Q34">
-        <v>0.1097300567486667</v>
+        <v>0.00222178275</v>
       </c>
       <c r="R34">
-        <v>0.9875705107379998</v>
+        <v>0.01999604475</v>
       </c>
       <c r="S34">
-        <v>0.001388364664464344</v>
+        <v>4.722755909956581E-05</v>
       </c>
       <c r="T34">
-        <v>0.001388364664464344</v>
+        <v>4.722755909956581E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H35">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.926836</v>
+        <v>1.973003333333333</v>
       </c>
       <c r="N35">
-        <v>5.780507999999999</v>
+        <v>5.91901</v>
       </c>
       <c r="O35">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="P35">
-        <v>0.1681331259990026</v>
+        <v>0.2509799501746913</v>
       </c>
       <c r="Q35">
-        <v>0.2938309289839999</v>
+        <v>0.0162772775</v>
       </c>
       <c r="R35">
-        <v>2.644478360855999</v>
+        <v>0.1464954975</v>
       </c>
       <c r="S35">
-        <v>0.003717709542996975</v>
+        <v>0.0003459996640586406</v>
       </c>
       <c r="T35">
-        <v>0.003717709542996975</v>
+        <v>0.0003459996640586406</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H36">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.2817366666666667</v>
+        <v>0.5496376666666666</v>
       </c>
       <c r="N36">
-        <v>0.84521</v>
+        <v>1.648913</v>
       </c>
       <c r="O36">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243847</v>
       </c>
       <c r="P36">
-        <v>0.0245839638013851</v>
+        <v>0.06991779074243848</v>
       </c>
       <c r="Q36">
-        <v>0.04296315124666666</v>
+        <v>0.00453451075</v>
       </c>
       <c r="R36">
-        <v>0.38666836122</v>
+        <v>0.04081059675</v>
       </c>
       <c r="S36">
-        <v>0.0005435932763757914</v>
+        <v>9.638830548722255E-05</v>
       </c>
       <c r="T36">
-        <v>0.0005435932763757915</v>
+        <v>9.638830548722257E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H37">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8600629999999999</v>
+        <v>0.3734693333333333</v>
       </c>
       <c r="N37">
-        <v>2.580189</v>
+        <v>1.120408</v>
       </c>
       <c r="O37">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230658</v>
       </c>
       <c r="P37">
-        <v>0.07504794427033756</v>
+        <v>0.04750793528230659</v>
       </c>
       <c r="Q37">
-        <v>0.131154447122</v>
+        <v>0.003081122</v>
       </c>
       <c r="R37">
-        <v>1.180390024098</v>
+        <v>0.027730098</v>
       </c>
       <c r="S37">
-        <v>0.001659437763607597</v>
+        <v>6.549419440220803E-05</v>
       </c>
       <c r="T37">
-        <v>0.001659437763607597</v>
+        <v>6.549419440220804E-05</v>
       </c>
     </row>
   </sheetData>
